--- a/biology/Botanique/Eriosyce/Eriosyce.xlsx
+++ b/biology/Botanique/Eriosyce/Eriosyce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eriosyce sont des plantes miniatures chiliennes de la famille des Cactaceae.  Le nom du genre vient du grec, Erion (la laine) et de Syce (la figue) en raison de leur fruit laineux.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,8 +553,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste d'espèces
-En 2020, Plants of the World Online reconnaît les espèces suivantes[2] :
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020, Plants of the World Online reconnaît les espèces suivantes :
 Eriosyce andreaeana Katt.
 Eriosyce armata (F.Ritter) P.C.Guerrero &amp; Helmut Walter
 Eriosyce aspillagae (Söhrens) Katt.
